--- a/Uren registratie.xlsx
+++ b/Uren registratie.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rens\Documents\Front-end-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rens\Desktop\Front-end-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Naam:</t>
   </si>
@@ -45,6 +45,36 @@
   </si>
   <si>
     <t>project starten</t>
+  </si>
+  <si>
+    <t>Plan van aanpak</t>
+  </si>
+  <si>
+    <t>Ziek</t>
+  </si>
+  <si>
+    <t>FO ( stroomdiagram)</t>
+  </si>
+  <si>
+    <t>FO (wireframes)</t>
+  </si>
+  <si>
+    <t>ziek</t>
+  </si>
+  <si>
+    <t>Stroomdiagram</t>
+  </si>
+  <si>
+    <t>Fo afmaken</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>FO afmaken</t>
+  </si>
+  <si>
+    <t>PVA</t>
   </si>
 </sst>
 </file>
@@ -89,10 +119,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -409,11 +439,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" customWidth="1"/>
+    <col min="16" max="16" width="14.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
@@ -476,8 +513,8 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="N4" t="s">
         <v>4</v>
       </c>
@@ -490,7 +527,31 @@
       <c r="C5">
         <v>2</v>
       </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
       <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
         <v>2</v>
       </c>
     </row>
@@ -505,8 +566,35 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
       <c r="N7" t="s">
         <v>6</v>
+      </c>
+      <c r="O7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -517,11 +605,35 @@
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>43172</v>
       </c>
-      <c r="N9" s="3">
+      <c r="E9" s="2">
+        <v>43173</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43179</v>
+      </c>
+      <c r="G9" s="2">
+        <v>43201</v>
+      </c>
+      <c r="H9" s="2">
+        <v>43207</v>
+      </c>
+      <c r="N9" s="2">
         <v>43172</v>
+      </c>
+      <c r="O9" s="2">
+        <v>43173</v>
+      </c>
+      <c r="P9" s="2">
+        <v>43179</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>43201</v>
+      </c>
+      <c r="R9" s="2">
+        <v>43207</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
